--- a/Testing and Admin/testbed/Historical Transactions/category list.xlsx
+++ b/Testing and Admin/testbed/Historical Transactions/category list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Design Folder\RBGithub\Lifestyle-Analysis\testbed\Historical Transactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rybot\Desktop\Design Programs\.VSC Projects\lifestyleanalysisv2\Testing and Admin\testbed\Historical Transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475744A7-4AE5-4BFB-8E0F-4BBB01DE90C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA554F76-ECD2-404B-8037-4825AB0EE1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="2595" windowWidth="18240" windowHeight="15345" xr2:uid="{79BAE663-0D54-4C46-A624-99ED3C8CDB48}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{79BAE663-0D54-4C46-A624-99ED3C8CDB48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Do not Count</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Transportation</t>
-  </si>
-  <si>
-    <t>Supermarkets</t>
   </si>
   <si>
     <t>Restaurants</t>
@@ -500,9 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AAD40F-2D65-46BE-958E-4CCB30DB4E0E}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -511,52 +510,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -586,47 +585,47 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -636,35 +635,25 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A25" xr:uid="{CEC44E81-D65A-4AAD-B210-5CB29D4FAEDF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A25">
-      <sortCondition ref="A3:A25"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>